--- a/Artifacts/Recypy_Deliverable_1_SprintBacklog.xlsx
+++ b/Artifacts/Recypy_Deliverable_1_SprintBacklog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RecyPy\Artifacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Recypy\RecyPy\Artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD24D323-F813-4D37-BAD7-A423F03EE7CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9333CF33-ACE2-4247-BC1B-E67712ABB6F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint i" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>User Story</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>Story Tasks</t>
+  </si>
+  <si>
+    <t>Set up rough database</t>
+  </si>
+  <si>
+    <t>Set up flask frame</t>
+  </si>
+  <si>
+    <t>Set up laravel framework</t>
+  </si>
+  <si>
+    <t>Setting up necessary environments for development</t>
   </si>
 </sst>
 </file>
@@ -88,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,14 +123,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -126,6 +146,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -349,402 +381,421 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
-    <col min="9" max="9" width="42.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.77734375" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="49.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" customWidth="1"/>
+    <col min="8" max="8" width="27.88671875" customWidth="1"/>
+    <col min="9" max="9" width="42.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="21.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
+    <row r="2" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="5"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="5"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="4"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="5"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="5"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="4"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="5"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="5"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="5"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="4"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="5"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="5"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="5"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="5"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="5"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="5"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="5"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="5"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="5"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="5"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="5"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="5"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="5"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Artifacts/Recypy_Deliverable_1_SprintBacklog.xlsx
+++ b/Artifacts/Recypy_Deliverable_1_SprintBacklog.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salle\Desktop\hw\COS420\Project 0\RecyPy\Artifacts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D44873-563F-447C-A124-A2DED76D681E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21570" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint i" sheetId="1" r:id="rId4"/>
+    <sheet name="Sprint i" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -63,32 +72,25 @@
   <si>
     <t>Spencer - 100%</t>
   </si>
+  <si>
+    <t>Set up user acc</t>
+  </si>
+  <si>
+    <t>Set up user acc on Laravel</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -173,61 +175,45 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -237,24 +223,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -456,7 +503,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -475,7 +522,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -505,7 +552,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -531,7 +578,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -557,7 +604,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -583,7 +630,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -609,7 +656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -635,7 +682,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -661,7 +708,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -687,7 +734,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -713,7 +760,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -726,9 +773,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -745,7 +798,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -764,7 +817,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -790,7 +843,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -816,7 +869,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -842,7 +895,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -868,7 +921,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -894,7 +947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -920,7 +973,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -946,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -972,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -998,7 +1051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,9 +1064,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1027,7 +1086,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1046,7 +1105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1076,7 +1135,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,7 +1161,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1128,7 +1187,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1154,7 +1213,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,7 +1239,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,7 +1265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,7 +1291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1258,7 +1317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,7 +1343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,488 +1356,507 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV37"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.8516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="42.1719" style="1" customWidth="1"/>
-    <col min="10" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="42.140625" style="1" customWidth="1"/>
+    <col min="10" max="256" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.9" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="21.6" customHeight="1">
+    <row r="2" spans="1:9" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="16">
         <v>1</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" t="s" s="9">
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="15.6" customHeight="1">
-      <c r="A3" s="10">
+    <row r="3" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="11">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="11">
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" t="s" s="15">
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="15.6" customHeight="1">
-      <c r="A4" s="10">
+    <row r="4" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s" s="11">
+      <c r="C4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" t="s" s="15">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" ht="15.6" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" ht="15.6" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13"/>
-    </row>
-    <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13"/>
-    </row>
-    <row r="13" ht="13.65" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-    </row>
-    <row r="16" ht="13.65" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" ht="15.6" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" ht="15.6" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="13"/>
-    </row>
-    <row r="21" ht="15.6" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="13"/>
-    </row>
-    <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="13"/>
-    </row>
-    <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="13"/>
-    </row>
-    <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="13"/>
-    </row>
-    <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="13"/>
-    </row>
-    <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="13"/>
-    </row>
-    <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="13"/>
-    </row>
-    <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="13"/>
-    </row>
-    <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="13"/>
-    </row>
-    <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="13"/>
-    </row>
-    <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="13"/>
-    </row>
-    <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="13"/>
-    </row>
-    <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="13"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="13"/>
-    </row>
-    <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="13"/>
-    </row>
-    <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="13"/>
-    </row>
-    <row r="36" ht="15.6" customHeight="1">
-      <c r="A36" s="13"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="13"/>
-    </row>
-    <row r="37" ht="15.6" customHeight="1">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="13"/>
+    <row r="5" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="10"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="10"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1786,7 +1864,7 @@
     <mergeCell ref="D2:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
